--- a/results-Myrstuen langtidsmodell.xlsx
+++ b/results-Myrstuen langtidsmodell.xlsx
@@ -458,13 +458,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9079842256439716</v>
+        <v>0.8948264462569185</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9891089334033627</v>
+        <v>0.9874106250500442</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1248120011957047</v>
+        <v>0.1368325239561193</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
@@ -491,7 +491,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>-0.01226832895316979</v>
+        <v>-0.01204715485258867</v>
       </c>
     </row>
     <row r="5">
@@ -504,7 +504,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>0.0172316728680937</v>
+        <v>0.01663590668407266</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>-0.03425529521936952</v>
+        <v>-0.03450230055418378</v>
       </c>
     </row>
     <row r="7">
@@ -530,7 +530,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0.02102256841163641</v>
+        <v>0.02166387885015678</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.0592077884877355</v>
+        <v>0.06095008143616938</v>
       </c>
     </row>
   </sheetData>

--- a/results-Myrstuen langtidsmodell.xlsx
+++ b/results-Myrstuen langtidsmodell.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,13 +458,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8948264462569185</v>
+        <v>0.8948264462569182</v>
       </c>
       <c r="C2" t="n">
         <v>0.9874106250500442</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1368325239561193</v>
+        <v>0.1368325239561196</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
@@ -491,7 +491,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>-0.01204715485258867</v>
+        <v>-0.01204715485258864</v>
       </c>
     </row>
     <row r="5">
@@ -504,7 +504,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>0.01663590668407266</v>
+        <v>0.01663590668407269</v>
       </c>
     </row>
     <row r="6">
@@ -530,7 +530,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0.02166387885015678</v>
+        <v>0.02166387885015672</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.06095008143616938</v>
+        <v>0.06095008143616931</v>
       </c>
     </row>
   </sheetData>
